--- a/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T16:48:59+00:00</t>
+    <t>2024-05-15T13:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T13:41:06+00:00</t>
+    <t>2024-05-15T14:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-prep-0-4-0-ballot1/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T14:13:00+00:00</t>
+    <t>2024-05-15T14:44:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
